--- a/docs/画面項目定義書/virtual_machine_management/snapshot_management.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/snapshot_management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07214352-49BB-48A6-B87C-0B8E52257824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F44579-75AD-4254-8023-CBB21C5FD2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="4005" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>日本工学院</t>
   </si>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>日付形式</t>
-  </si>
-  <si>
-    <t>snapshot_management</t>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>スナップショットエンティティより</t>
@@ -140,10 +136,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>スナップショット作成モーダルへ遷移</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>はい</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -194,10 +186,24 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>スナップショットからmo_snapshot_restoreへ遷移</t>
-    <rPh sb="30" eb="32">
+    <t>スナップショット管理画面</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>snapshot_management.html</t>
+  </si>
+  <si>
+    <t>スナップショットからmo_snapshot_restore.htmlへ遷移</t>
+    <rPh sb="35" eb="37">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mo_snapshot_create.htmlへ遷移</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -805,14 +811,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2979720</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>237240</xdr:rowOff>
     </xdr:to>
@@ -831,6 +837,87 @@
         <a:xfrm>
           <a:off x="6391080" y="6808320"/>
           <a:ext cx="6140880" cy="237240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="23040" rIns="27360" bIns="0" anchor="t" upright="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Verdana"/>
+            </a:rPr>
+            <a:t>All Rights Reserved,Copyright © 2025 KATAYANAGI INSTITUTE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Noto Serif CJK JP"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2979720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>237240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9652D29-8B16-4949-AF62-C17F0D3C3A8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5752935" y="6661150"/>
+          <a:ext cx="5535760" cy="167390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1065,21 +1152,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.1328125" customWidth="1"/>
+    <col min="6" max="6" width="40.86328125" customWidth="1"/>
     <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:7" ht="13.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1177,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="13.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1099,7 +1186,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14.5">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1108,7 +1195,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="13.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1117,7 +1204,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
+    <row r="5" spans="1:7" ht="13.25">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1130,18 +1217,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
+    <row r="6" spans="1:7" ht="13.25">
       <c r="A6" s="38" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B6" s="38"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
+    <row r="7" spans="1:7" ht="13.25">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1150,7 +1239,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
+    <row r="8" spans="1:7" ht="13.25">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1173,7 +1262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="36">
+    <row r="9" spans="1:7" ht="36.75">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1185,14 +1274,14 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36.75">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1204,16 +1293,16 @@
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="36">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="36.75">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1225,14 +1314,14 @@
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36.75">
       <c r="A12" s="28">
         <v>4</v>
       </c>
@@ -1244,14 +1333,14 @@
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.25">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1265,10 +1354,10 @@
       <c r="E13" s="32"/>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="36.75">
       <c r="A14" s="28">
         <v>6</v>
       </c>
@@ -1285,7 +1374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24">
+    <row r="15" spans="1:7" ht="36.75">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -1299,15 +1388,15 @@
       <c r="E15" s="32"/>
       <c r="F15" s="33"/>
       <c r="G15" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.25">
       <c r="A16" s="28">
         <v>8</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -1315,157 +1404,63 @@
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
     </row>
-    <row r="17" spans="1:7" ht="13.5">
+    <row r="17" spans="1:7" ht="24.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.25">
       <c r="A18" s="28">
         <v>10</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.5">
-      <c r="A19" s="21">
-        <v>11</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.5">
-      <c r="A20" s="28">
-        <v>12</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.5">
-      <c r="A21" s="21">
-        <v>13</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.5">
-      <c r="A22" s="28">
-        <v>14</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.5">
-      <c r="A23" s="21">
-        <v>15</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" ht="13.5">
-      <c r="A24" s="28">
-        <v>16</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" spans="1:7" ht="13.5">
-      <c r="A25" s="21">
-        <v>17</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.5">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.5">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.5">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.5">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-    </row>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.25"/>
+    <row r="21" spans="1:7" ht="13.25"/>
+    <row r="22" spans="1:7" ht="13.25"/>
+    <row r="23" spans="1:7" ht="13.25"/>
+    <row r="24" spans="1:7" ht="13.25"/>
+    <row r="25" spans="1:7" ht="13.25"/>
+    <row r="26" spans="1:7" ht="13.25"/>
+    <row r="27" spans="1:7" ht="13.25"/>
+    <row r="28" spans="1:7" ht="13.25"/>
+    <row r="29" spans="1:7" ht="13.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A5:B5"/>
